--- a/data/trans_orig/IP2901-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2901-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D20E650B-800D-441B-8220-238B4F96C23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{165E3BE1-6922-4C67-BB40-6C603C630A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{76835320-112E-45BD-9EEC-17F5569BE04C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0332DE11-88E0-40F2-B5A6-2F8AD7341A02}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="375">
   <si>
     <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2007 (Tasa respuesta: 98,24%)</t>
   </si>
@@ -71,6 +71,99 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>Pecho/biberon</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>Solo biberon</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>994.0</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -86,102 +179,183 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>Pecho/biberon</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>Solo biberon</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
     <t>0,46%</t>
   </si>
   <si>
@@ -191,175 +365,82 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -371,172 +452,253 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
     <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2012 (Tasa respuesta: 98,95%)</t>
   </si>
   <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
     <t>0,57%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -548,165 +710,6 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
     <t>66,62%</t>
   </si>
   <si>
@@ -788,82 +791,244 @@
     <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2015 (Tasa respuesta: 97,51%)</t>
   </si>
   <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
   </si>
   <si>
     <t>0,52%</t>
@@ -872,168 +1037,6 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
     <t>78,17%</t>
   </si>
   <si>
@@ -1100,6 +1103,15 @@
     <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -1112,13 +1124,31 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -1130,37 +1160,10 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,1%</t>
   </si>
   <si>
     <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4A3D89-823B-47D6-9493-E163C031F8C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C2931-8F27-445B-BAD0-053E667D37A3}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1666,206 +1669,206 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>163785</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>158098</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>321883</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>246</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>163785</v>
+        <v>14095</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>158098</v>
+        <v>12792</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>486</v>
+        <v>41</v>
       </c>
       <c r="N5" s="7">
-        <v>321883</v>
+        <v>26887</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D6" s="7">
-        <v>14095</v>
+        <v>41298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I6" s="7">
-        <v>12792</v>
+        <v>37337</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="N6" s="7">
-        <v>26887</v>
+        <v>78635</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>41298</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>37337</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>78635</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,13 +1883,13 @@
         <v>219179</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>317</v>
@@ -1895,13 +1898,13 @@
         <v>208226</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>645</v>
@@ -1910,219 +1913,219 @@
         <v>427405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>145943</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>151690</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>297633</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>323</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>215984</v>
+        <v>22410</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="7">
+        <v>19</v>
+      </c>
+      <c r="I10" s="7">
+        <v>13176</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="7">
         <v>52</v>
       </c>
-      <c r="H10" s="7">
-        <v>297</v>
-      </c>
-      <c r="I10" s="7">
-        <v>201105</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="7">
-        <v>620</v>
-      </c>
       <c r="N10" s="7">
-        <v>417090</v>
+        <v>35586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7">
-        <v>12170</v>
+        <v>44989</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I11" s="7">
-        <v>12179</v>
+        <v>36705</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="N11" s="7">
-        <v>24349</v>
+        <v>81694</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>48472</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>45899</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>94371</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,255 +2134,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>415</v>
+        <v>323</v>
       </c>
       <c r="D13" s="7">
-        <v>276625</v>
+        <v>213342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>385</v>
+        <v>299</v>
       </c>
       <c r="I13" s="7">
-        <v>259183</v>
+        <v>201571</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>800</v>
+        <v>622</v>
       </c>
       <c r="N13" s="7">
-        <v>535809</v>
+        <v>414913</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="5">
-        <v>994</v>
+        <v>78</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>215984</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>201105</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>417090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="D15" s="7">
-        <v>145943</v>
+        <v>12170</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="I15" s="7">
-        <v>151690</v>
+        <v>12179</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M15" s="7">
-        <v>447</v>
+        <v>37</v>
       </c>
       <c r="N15" s="7">
-        <v>297633</v>
+        <v>24349</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7">
-        <v>22410</v>
+        <v>48472</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>13176</v>
+        <v>45899</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="N16" s="7">
-        <v>35586</v>
+        <v>94371</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>44989</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>36705</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>81694</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,255 +2391,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>323</v>
+        <v>415</v>
       </c>
       <c r="D18" s="7">
-        <v>213342</v>
+        <v>276625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>299</v>
+        <v>385</v>
       </c>
       <c r="I18" s="7">
-        <v>201571</v>
+        <v>259183</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>622</v>
+        <v>800</v>
       </c>
       <c r="N18" s="7">
-        <v>414913</v>
+        <v>535809</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>791</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>525713</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>510893</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1553</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>1036605</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>791</v>
+        <v>72</v>
       </c>
       <c r="D20" s="7">
-        <v>525713</v>
+        <v>48675</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>762</v>
+        <v>58</v>
       </c>
       <c r="I20" s="7">
-        <v>510893</v>
+        <v>38146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1553</v>
+        <v>130</v>
       </c>
       <c r="N20" s="7">
-        <v>1036605</v>
+        <v>86821</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="D21" s="7">
-        <v>48675</v>
+        <v>134759</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="I21" s="7">
-        <v>38146</v>
+        <v>119941</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
-        <v>130</v>
+        <v>384</v>
       </c>
       <c r="N21" s="7">
-        <v>86821</v>
+        <v>254700</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>134759</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>119941</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>254700</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2654,13 @@
         <v>709147</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>1001</v>
@@ -2666,13 +2669,13 @@
         <v>668980</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>2067</v>
@@ -2681,13 +2684,13 @@
         <v>1378126</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2706,7 +2709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE5A223-A083-4DF9-97EE-7B559A2AE198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AEEB7C-74C2-4B7E-892B-A92683CB15E7}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2723,7 +2726,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2820,206 +2823,206 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>153856</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>155290</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>309145</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7">
-        <v>153856</v>
+        <v>25561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7">
-        <v>155290</v>
+        <v>23120</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
-        <v>448</v>
+        <v>71</v>
       </c>
       <c r="N5" s="7">
-        <v>309145</v>
+        <v>48682</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="D6" s="7">
-        <v>25561</v>
+        <v>57825</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H6" s="7">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I6" s="7">
-        <v>23120</v>
+        <v>46516</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="M6" s="7">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="N6" s="7">
-        <v>48682</v>
+        <v>104341</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>57825</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H7" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>46516</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>104341</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3037,13 @@
         <v>237242</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>338</v>
@@ -3049,13 +3052,13 @@
         <v>224926</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>673</v>
@@ -3064,219 +3067,219 @@
         <v>462168</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>158376</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>162941</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>321318</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>266</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>181928</v>
+        <v>16767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>179795</v>
+        <v>14780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
-        <v>522</v>
+        <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>361722</v>
+        <v>31547</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D11" s="7">
-        <v>18106</v>
+        <v>63417</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I11" s="7">
-        <v>19643</v>
+        <v>51076</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="N11" s="7">
-        <v>37749</v>
+        <v>114493</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>65935</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="H12" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>54216</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="M12" s="7">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>120151</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,255 +3288,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="D13" s="7">
-        <v>265969</v>
+        <v>238561</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="I13" s="7">
-        <v>253653</v>
+        <v>228797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>753</v>
+        <v>651</v>
       </c>
       <c r="N13" s="7">
-        <v>519622</v>
+        <v>467358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="5">
-        <v>994</v>
+        <v>78</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>181928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>179795</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>361722</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7">
-        <v>158376</v>
+        <v>18106</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c r="I15" s="7">
-        <v>162941</v>
+        <v>19643</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M15" s="7">
-        <v>445</v>
+        <v>55</v>
       </c>
       <c r="N15" s="7">
-        <v>321318</v>
+        <v>37749</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D16" s="7">
-        <v>16767</v>
+        <v>65935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I16" s="7">
-        <v>14780</v>
+        <v>54216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="N16" s="7">
-        <v>31547</v>
+        <v>120151</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>63417</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H17" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>51076</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>114493</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,255 +3545,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="D18" s="7">
-        <v>238561</v>
+        <v>265969</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="I18" s="7">
-        <v>228797</v>
+        <v>253653</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>651</v>
+        <v>753</v>
       </c>
       <c r="N18" s="7">
-        <v>467358</v>
+        <v>519622</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>494160</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>498026</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1415</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>992185</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>701</v>
+        <v>86</v>
       </c>
       <c r="D20" s="7">
-        <v>494160</v>
+        <v>60435</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H20" s="7">
-        <v>714</v>
+        <v>84</v>
       </c>
       <c r="I20" s="7">
-        <v>498026</v>
+        <v>57543</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="M20" s="7">
-        <v>1415</v>
+        <v>170</v>
       </c>
       <c r="N20" s="7">
-        <v>992185</v>
+        <v>117977</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="D21" s="7">
-        <v>60435</v>
+        <v>187178</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="H21" s="7">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>57543</v>
+        <v>151808</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M21" s="7">
-        <v>170</v>
+        <v>492</v>
       </c>
       <c r="N21" s="7">
-        <v>117977</v>
+        <v>338985</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>187178</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>151808</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>338985</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3808,13 @@
         <v>741772</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>1019</v>
@@ -3820,13 +3823,13 @@
         <v>707376</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>2077</v>
@@ -3835,13 +3838,13 @@
         <v>1449147</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3860,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F672B7-7841-4A00-8F7E-7DBC9836038E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BF6186-E86F-46D0-9B9F-17D3772197B9}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3877,7 +3880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3974,206 +3977,206 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>155414</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>163144</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>318558</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>235</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7">
-        <v>155414</v>
+        <v>25554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7">
+        <v>15770</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="7">
-        <v>163144</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
-        <v>498</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>318558</v>
+        <v>41324</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7">
-        <v>25554</v>
+        <v>27453</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>15770</v>
+        <v>19746</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="N6" s="7">
-        <v>41324</v>
+        <v>47200</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>27453</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>19746</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="M7" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>47200</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4191,13 @@
         <v>208422</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>322</v>
@@ -4203,13 +4206,13 @@
         <v>198660</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>636</v>
@@ -4218,219 +4221,219 @@
         <v>407082</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>200228</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>173472</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>279</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>373700</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15619</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D10" s="7">
-        <v>211539</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>183647</v>
+        <v>20912</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
-        <v>543</v>
+        <v>54</v>
       </c>
       <c r="N10" s="7">
-        <v>395186</v>
+        <v>36531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>20516</v>
+        <v>30312</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>149</v>
+        <v>293</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7">
-        <v>21202</v>
+        <v>35772</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="M11" s="7">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="N11" s="7">
-        <v>41718</v>
+        <v>66084</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>38931</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H12" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>54463</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>297</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>298</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M12" s="7">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>93394</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,255 +4442,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D13" s="7">
-        <v>270986</v>
+        <v>246159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="I13" s="7">
-        <v>259312</v>
+        <v>230156</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="N13" s="7">
-        <v>530298</v>
+        <v>476315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="5">
-        <v>994</v>
+        <v>78</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>211539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>183647</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>308</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>395186</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7">
-        <v>200228</v>
+        <v>20516</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>305</v>
+        <v>148</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H15" s="7">
-        <v>266</v>
+        <v>29</v>
       </c>
       <c r="I15" s="7">
-        <v>173472</v>
+        <v>21202</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M15" s="7">
-        <v>554</v>
+        <v>56</v>
       </c>
       <c r="N15" s="7">
-        <v>373700</v>
+        <v>41718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7">
-        <v>15619</v>
+        <v>38931</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="H16" s="7">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="I16" s="7">
-        <v>20912</v>
+        <v>54463</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>326</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="N16" s="7">
-        <v>36531</v>
+        <v>93394</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>30312</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>35772</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>66084</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,255 +4699,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D18" s="7">
-        <v>246159</v>
+        <v>270986</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="I18" s="7">
-        <v>230156</v>
+        <v>259312</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="N18" s="7">
-        <v>476315</v>
+        <v>530298</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>567182</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>332</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>334</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>520263</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>335</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>336</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1595</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>1087445</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>809</v>
+        <v>86</v>
       </c>
       <c r="D20" s="7">
-        <v>567182</v>
+        <v>61689</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H20" s="7">
-        <v>786</v>
+        <v>86</v>
       </c>
       <c r="I20" s="7">
-        <v>520263</v>
+        <v>57883</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M20" s="7">
-        <v>1595</v>
+        <v>172</v>
       </c>
       <c r="N20" s="7">
-        <v>1087445</v>
+        <v>119572</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>57</v>
+        <v>344</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="D21" s="7">
-        <v>61689</v>
+        <v>96697</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>121</v>
+        <v>345</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H21" s="7">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="I21" s="7">
-        <v>57883</v>
+        <v>109982</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>178</v>
+        <v>349</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>341</v>
+        <v>69</v>
       </c>
       <c r="M21" s="7">
-        <v>172</v>
+        <v>306</v>
       </c>
       <c r="N21" s="7">
-        <v>119572</v>
+        <v>206679</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>95</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>96697</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>345</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>135</v>
       </c>
       <c r="H22" s="7">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>109982</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>206679</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>350</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>351</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4962,13 @@
         <v>725568</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>1036</v>
@@ -4974,13 +4977,13 @@
         <v>688128</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>2073</v>
@@ -4989,13 +4992,13 @@
         <v>1413696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5014,7 +5017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D8C80F-8405-4754-85FE-DBC1DDF2F286}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC51B9F-CEF9-442A-A1BD-9C94E710B45C}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5031,7 +5034,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5128,59 +5131,59 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>117938</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="H4" s="7">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>103803</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M4" s="7">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>221741</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -5189,13 +5192,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5204,13 +5207,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5219,19 +5222,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -5240,13 +5243,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5255,13 +5258,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5270,64 +5273,64 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>117938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="7">
+        <v>199</v>
+      </c>
+      <c r="I7" s="7">
+        <v>103803</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>221741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5345,13 @@
         <v>117938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>199</v>
@@ -5357,13 +5360,13 @@
         <v>103803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>426</v>
@@ -5372,72 +5375,72 @@
         <v>221741</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>360</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="H9" s="7">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>351641</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>361</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="M9" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>754351</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>362</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>45</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -5446,49 +5449,49 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -5497,94 +5500,94 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>205055</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>363</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>198267</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>365</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>364</v>
+        <v>46</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>403323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>365</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,108 +5596,108 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D13" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="I13" s="7">
-        <v>351641</v>
+        <v>198267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>942</v>
+        <v>552</v>
       </c>
       <c r="N13" s="7">
-        <v>754351</v>
+        <v>403323</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="5">
-        <v>994</v>
+        <v>78</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>205055</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>198267</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>403323</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -5703,49 +5706,49 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -5754,94 +5757,94 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>402710</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>369</v>
+        <v>46</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>351641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>46</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>754351</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,108 +5853,108 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D18" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="I18" s="7">
-        <v>198267</v>
+        <v>351641</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>552</v>
+        <v>942</v>
       </c>
       <c r="N18" s="7">
-        <v>403323</v>
+        <v>754351</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>725704</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>362</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="H19" s="7">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>653712</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>362</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="M19" s="7">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1379416</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5960,13 +5963,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5975,13 +5978,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5990,10 +5993,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>373</v>
@@ -6002,7 +6005,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -6011,13 +6014,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6026,13 +6029,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6041,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>373</v>
@@ -6053,52 +6056,52 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>725704</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>46</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>653712</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>46</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>1379416</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6116,13 @@
         <v>725704</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>943</v>
@@ -6128,13 +6131,13 @@
         <v>653712</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>1920</v>
@@ -6143,13 +6146,13 @@
         <v>1379416</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2901-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2901-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D00BE8DF-BDB5-458A-8F07-375CFA2927FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A1252B6-DD7A-44DB-9EE6-4ED55FA78329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1FA3772E-998E-499A-ACF9-BB06BD75DADA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6296107E-A07F-4570-BE97-002647F39C75}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="411">
   <si>
     <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2007 (Tasa respuesta: 98,24%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>16,73%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
   </si>
   <si>
     <t>18,96%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
   </si>
   <si>
     <t>Pecho/biberon</t>
@@ -106,1138 +106,1141 @@
     <t>7,13%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>22,1%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2016 (Tasa respuesta: 97,51%)</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>9,62%</t>
   </si>
   <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>80,24%</t>
   </si>
   <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2015 (Tasa respuesta: 97,51%)</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>11,34%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
   </si>
   <si>
     <t>77,58%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
   </si>
   <si>
     <t>70,6%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
+    <t>13,82%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>7,4%</t>
+    <t>7,35%</t>
   </si>
   <si>
     <t>9,79%</t>
@@ -1246,25 +1249,28 @@
     <t>78,17%</t>
   </si>
   <si>
-    <t>75,64%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0C15C4-F4EA-4A9F-AE2C-A80B13828F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26184F5-11F0-448E-8F71-2211A4C68457}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2299,7 +2305,7 @@
         <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,13 +2320,13 @@
         <v>100763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -2329,13 +2335,13 @@
         <v>91921</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -2344,13 +2350,13 @@
         <v>192685</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,7 +2412,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2418,13 +2424,13 @@
         <v>35425</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -2433,13 +2439,13 @@
         <v>33026</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -2448,13 +2454,13 @@
         <v>68452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2475,13 @@
         <v>8969</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2484,13 +2490,13 @@
         <v>7502</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -2499,13 +2505,13 @@
         <v>16471</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2526,13 @@
         <v>158290</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>218</v>
@@ -2535,13 +2541,13 @@
         <v>148596</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>456</v>
@@ -2550,13 +2556,13 @@
         <v>306886</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2630,13 @@
         <v>134759</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>181</v>
@@ -2639,13 +2645,13 @@
         <v>119941</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="M20" s="7">
         <v>384</v>
@@ -2838,7 +2844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0744EA9-85AA-451F-81DB-79FDFDC61E3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275106A1-711E-4694-9C01-48E0143E491A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3019,7 +3025,7 @@
         <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -3028,13 +3034,13 @@
         <v>17838</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -3043,13 +3049,13 @@
         <v>34865</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3070,13 @@
         <v>96586</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H6" s="7">
         <v>143</v>
@@ -3079,13 +3085,13 @@
         <v>96805</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>279</v>
@@ -3094,13 +3100,13 @@
         <v>193390</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3174,13 @@
         <v>70237</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>71</v>
@@ -3183,13 +3189,13 @@
         <v>48271</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>169</v>
@@ -3198,13 +3204,13 @@
         <v>118508</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3225,13 @@
         <v>21084</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -3234,13 +3240,13 @@
         <v>16844</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -3249,13 +3255,13 @@
         <v>37928</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,13 +3276,13 @@
         <v>173590</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>243</v>
@@ -3285,13 +3291,13 @@
         <v>169879</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>484</v>
@@ -3300,13 +3306,13 @@
         <v>343469</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3380,13 @@
         <v>38460</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H12" s="7">
         <v>50</v>
@@ -3389,13 +3395,13 @@
         <v>35239</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M12" s="7">
         <v>107</v>
@@ -3404,13 +3410,13 @@
         <v>73699</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3431,13 @@
         <v>13561</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3440,13 +3446,13 @@
         <v>13186</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -3455,13 +3461,13 @@
         <v>26747</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3482,13 @@
         <v>102863</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>154</v>
@@ -3491,13 +3497,13 @@
         <v>108618</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>300</v>
@@ -3506,13 +3512,13 @@
         <v>211481</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3574,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3580,13 +3586,13 @@
         <v>46705</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -3595,13 +3601,13 @@
         <v>36179</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -3610,13 +3616,13 @@
         <v>82883</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3637,13 @@
         <v>8761</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -3646,13 +3652,13 @@
         <v>9675</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -3661,13 +3667,13 @@
         <v>18437</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3688,13 @@
         <v>121120</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H18" s="7">
         <v>174</v>
@@ -3697,13 +3703,13 @@
         <v>122725</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M18" s="7">
         <v>352</v>
@@ -3712,13 +3718,13 @@
         <v>243845</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3792,13 @@
         <v>187178</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>221</v>
@@ -3801,13 +3807,13 @@
         <v>151808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>492</v>
@@ -3816,13 +3822,13 @@
         <v>338985</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,10 +3846,10 @@
         <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
@@ -3852,13 +3858,13 @@
         <v>57543</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M21" s="7">
         <v>170</v>
@@ -3867,13 +3873,13 @@
         <v>117977</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3894,13 @@
         <v>494160</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>714</v>
@@ -3903,13 +3909,13 @@
         <v>498026</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>1415</v>
@@ -3918,13 +3924,13 @@
         <v>992185</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,7 +4006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B307021-9E68-48C4-B6E1-D903EF9144E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8782529F-4EDE-4486-AD96-B092B4E396C6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4017,7 +4023,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4124,13 +4130,13 @@
         <v>17601</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4139,13 +4145,13 @@
         <v>12908</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -4154,13 +4160,13 @@
         <v>30510</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4181,13 @@
         <v>14481</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -4190,13 +4196,13 @@
         <v>10503</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -4205,13 +4211,13 @@
         <v>24984</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4232,13 @@
         <v>89257</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H6" s="7">
         <v>170</v>
@@ -4241,13 +4247,13 @@
         <v>106981</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M6" s="7">
         <v>307</v>
@@ -4256,13 +4262,13 @@
         <v>196238</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4336,13 @@
         <v>30800</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H8" s="7">
         <v>41</v>
@@ -4345,13 +4351,13 @@
         <v>26399</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M8" s="7">
         <v>89</v>
@@ -4360,13 +4366,13 @@
         <v>57199</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>316</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,13 +4387,13 @@
         <v>22042</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -4396,13 +4402,13 @@
         <v>13879</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M9" s="7">
         <v>56</v>
@@ -4411,13 +4417,13 @@
         <v>35920</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>325</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4438,13 @@
         <v>201920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>261</v>
@@ -4447,13 +4453,13 @@
         <v>166035</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>555</v>
@@ -4462,13 +4468,13 @@
         <v>367954</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,13 +4542,13 @@
         <v>23472</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -4551,13 +4557,13 @@
         <v>32811</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>210</v>
+        <v>335</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>81</v>
@@ -4566,13 +4572,13 @@
         <v>56284</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4593,13 @@
         <v>12869</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -4602,10 +4608,10 @@
         <v>22699</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>346</v>
@@ -4617,13 +4623,13 @@
         <v>35569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4644,13 @@
         <v>147582</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>188</v>
@@ -4653,13 +4659,13 @@
         <v>130408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>393</v>
@@ -4668,13 +4674,13 @@
         <v>277992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,7 +4736,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4742,13 +4748,13 @@
         <v>24823</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -4757,13 +4763,13 @@
         <v>37863</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -4772,13 +4778,13 @@
         <v>62686</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4799,13 @@
         <v>12297</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -4808,13 +4814,13 @@
         <v>10803</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -4823,13 +4829,13 @@
         <v>23100</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4850,13 @@
         <v>128423</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H18" s="7">
         <v>167</v>
@@ -4859,13 +4865,13 @@
         <v>116838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M18" s="7">
         <v>340</v>
@@ -4874,13 +4880,13 @@
         <v>245261</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4954,13 @@
         <v>96697</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>164</v>
@@ -4963,13 +4969,13 @@
         <v>109982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>388</v>
+        <v>70</v>
       </c>
       <c r="M20" s="7">
         <v>306</v>
@@ -4978,13 +4984,13 @@
         <v>206679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +5005,13 @@
         <v>61689</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>392</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -5014,13 +5020,13 @@
         <v>57883</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M21" s="7">
         <v>172</v>
@@ -5029,13 +5035,13 @@
         <v>119572</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5056,13 @@
         <v>567182</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>404</v>
       </c>
       <c r="H22" s="7">
         <v>786</v>
@@ -5065,13 +5071,13 @@
         <v>520263</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>1595</v>
@@ -5080,13 +5086,13 @@
         <v>1087445</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP2901-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2901-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A1252B6-DD7A-44DB-9EE6-4ED55FA78329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBF0EDD-8365-40D6-8FF3-BA967C028CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6296107E-A07F-4570-BE97-002647F39C75}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BDEF8216-E355-4B7A-B312-29DEF04F6C42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="406">
   <si>
     <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2007 (Tasa respuesta: 98,24%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1204 +73,1189 @@
     <t>Solo biberon</t>
   </si>
   <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
     <t>16,73%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>14,17%</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>Pecho/biberon</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>Pecho/biberon</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2016 (Tasa respuesta: 97,51%)</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
   </si>
   <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante las 4 primeras semanas de vida en 2016 (Tasa respuesta: 97,51%)</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>15,01%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>10,02%</t>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
   </si>
   <si>
     <t>79,26%</t>
   </si>
   <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
   </si>
   <si>
     <t>9,62%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
   </si>
   <si>
     <t>80,24%</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
   </si>
   <si>
     <t>75,16%</t>
   </si>
   <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
+    <t>19,96%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
   </si>
   <si>
     <t>77,58%</t>
   </si>
   <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>16,25%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
   </si>
   <si>
     <t>78,17%</t>
   </si>
   <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26184F5-11F0-448E-8F71-2211A4C68457}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67433FA7-C150-44AE-A3CD-D1E2838E0C88}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1800,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>19876</v>
+        <v>19760</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1815,10 +1800,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>19760</v>
+        <v>19876</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1851,10 +1836,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>8464</v>
+        <v>6451</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1866,10 +1851,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>6451</v>
+        <v>8464</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1902,10 +1887,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D6" s="7">
-        <v>90445</v>
+        <v>77990</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1917,10 +1902,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="I6" s="7">
-        <v>77990</v>
+        <v>90445</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1953,25 +1938,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>159</v>
+      </c>
+      <c r="D7" s="7">
+        <v>104201</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>178</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>118786</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>159</v>
-      </c>
-      <c r="I7" s="7">
-        <v>104201</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2006,10 +1991,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7">
-        <v>54281</v>
+        <v>41853</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2021,10 +2006,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="I8" s="7">
-        <v>41853</v>
+        <v>54281</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2057,10 +2042,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7">
-        <v>20448</v>
+        <v>17491</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2072,10 +2057,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I9" s="7">
-        <v>17491</v>
+        <v>20448</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2108,10 +2093,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="D10" s="7">
-        <v>176214</v>
+        <v>192386</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2123,10 +2108,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="I10" s="7">
-        <v>192386</v>
+        <v>176214</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2159,25 +2144,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>377</v>
+      </c>
+      <c r="D11" s="7">
+        <v>251730</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>378</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>250942</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>377</v>
-      </c>
-      <c r="I11" s="7">
-        <v>251730</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2212,10 +2197,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>25177</v>
+        <v>25301</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2227,10 +2212,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="7">
-        <v>25301</v>
+        <v>25177</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2263,10 +2248,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>10794</v>
+        <v>6702</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2278,10 +2263,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>6702</v>
+        <v>10794</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2314,10 +2299,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D14" s="7">
-        <v>100763</v>
+        <v>91921</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2329,10 +2314,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="I14" s="7">
-        <v>91921</v>
+        <v>100763</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2365,25 +2350,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>186</v>
+      </c>
+      <c r="D15" s="7">
+        <v>123925</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>205</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>136734</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>186</v>
-      </c>
-      <c r="I15" s="7">
-        <v>123925</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2418,10 +2403,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D16" s="7">
-        <v>35425</v>
+        <v>33026</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -2433,10 +2418,10 @@
         <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I16" s="7">
-        <v>33026</v>
+        <v>35425</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -2469,10 +2454,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>8969</v>
+        <v>7502</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -2484,10 +2469,10 @@
         <v>109</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>7502</v>
+        <v>8969</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
@@ -2520,10 +2505,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D18" s="7">
-        <v>158290</v>
+        <v>148596</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>116</v>
@@ -2535,10 +2520,10 @@
         <v>118</v>
       </c>
       <c r="H18" s="7">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="I18" s="7">
-        <v>148596</v>
+        <v>158290</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>119</v>
@@ -2571,25 +2556,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>279</v>
+      </c>
+      <c r="D19" s="7">
+        <v>189124</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>305</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>202684</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>279</v>
-      </c>
-      <c r="I19" s="7">
-        <v>189124</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2624,10 +2609,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="D20" s="7">
-        <v>134759</v>
+        <v>119941</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>125</v>
@@ -2639,10 +2624,10 @@
         <v>127</v>
       </c>
       <c r="H20" s="7">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="I20" s="7">
-        <v>119941</v>
+        <v>134759</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>128</v>
@@ -2651,7 +2636,7 @@
         <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>384</v>
@@ -2660,13 +2645,13 @@
         <v>254700</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,34 +2660,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>58</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38146</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="7">
         <v>72</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>48675</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" s="7">
-        <v>58</v>
-      </c>
-      <c r="I21" s="7">
-        <v>38146</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>130</v>
@@ -2711,13 +2696,13 @@
         <v>86821</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,49 +2711,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>762</v>
+      </c>
+      <c r="D22" s="7">
+        <v>510893</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="7">
         <v>791</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>525713</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="7">
-        <v>762</v>
-      </c>
-      <c r="I22" s="7">
-        <v>510893</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>1553</v>
       </c>
       <c r="N22" s="7">
-        <v>1036605</v>
+        <v>1036606</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,25 +2762,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1001</v>
+      </c>
+      <c r="D23" s="7">
+        <v>668980</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1066</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>709147</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1001</v>
-      </c>
-      <c r="I23" s="7">
-        <v>668980</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2810,7 +2795,7 @@
         <v>2067</v>
       </c>
       <c r="N23" s="7">
-        <v>1378126</v>
+        <v>1378127</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2824,7 +2809,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +2829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275106A1-711E-4694-9C01-48E0143E491A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FDD920-35C5-4F52-85F1-783B581A36BB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2861,7 +2846,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2962,34 +2947,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>32119</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="7">
         <v>47</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>31776</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="7">
-        <v>49</v>
-      </c>
-      <c r="I4" s="7">
-        <v>32119</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>96</v>
@@ -2998,13 +2983,13 @@
         <v>63895</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,34 +2998,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>17028</v>
+        <v>17838</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>98</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>17838</v>
+        <v>17028</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -3049,13 +3034,13 @@
         <v>34865</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,49 +3049,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>143</v>
+      </c>
+      <c r="D6" s="7">
+        <v>96805</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="7">
         <v>136</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>96586</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="7">
-        <v>143</v>
-      </c>
-      <c r="I6" s="7">
-        <v>96805</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>279</v>
       </c>
       <c r="N6" s="7">
-        <v>193390</v>
+        <v>193391</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,25 +3100,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>219</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>206</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>145390</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>219</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146761</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3148,7 +3133,7 @@
         <v>425</v>
       </c>
       <c r="N7" s="7">
-        <v>292150</v>
+        <v>292151</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3168,34 +3153,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>71</v>
+      </c>
+      <c r="D8" s="7">
+        <v>48271</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="7">
         <v>98</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>70237</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="7">
-        <v>71</v>
-      </c>
-      <c r="I8" s="7">
-        <v>48271</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>169</v>
@@ -3204,13 +3189,13 @@
         <v>118508</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,34 +3204,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7">
+        <v>16844</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="7">
         <v>30</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>21084</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" s="7">
-        <v>24</v>
-      </c>
-      <c r="I9" s="7">
-        <v>16844</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -3255,13 +3240,13 @@
         <v>37928</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,34 +3255,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>243</v>
+      </c>
+      <c r="D10" s="7">
+        <v>169879</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="7">
         <v>241</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>173590</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" s="7">
-        <v>243</v>
-      </c>
-      <c r="I10" s="7">
-        <v>169879</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>484</v>
@@ -3306,13 +3291,13 @@
         <v>343469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,25 +3306,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>338</v>
+      </c>
+      <c r="D11" s="7">
+        <v>234993</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>369</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>264912</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>338</v>
-      </c>
-      <c r="I11" s="7">
-        <v>234993</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3374,34 +3359,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>50</v>
+      </c>
+      <c r="D12" s="7">
+        <v>35239</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="7">
         <v>57</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>38460</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H12" s="7">
-        <v>50</v>
-      </c>
-      <c r="I12" s="7">
-        <v>35239</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M12" s="7">
         <v>107</v>
@@ -3410,13 +3395,13 @@
         <v>73699</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,34 +3410,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13186</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="7">
         <v>20</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>13561</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>13186</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -3461,13 +3446,13 @@
         <v>26747</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,34 +3461,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>154</v>
+      </c>
+      <c r="D14" s="7">
+        <v>108618</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="7">
         <v>146</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>102863</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H14" s="7">
-        <v>154</v>
-      </c>
-      <c r="I14" s="7">
-        <v>108618</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>300</v>
@@ -3512,13 +3497,13 @@
         <v>211481</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,7 +3515,7 @@
         <v>223</v>
       </c>
       <c r="D15" s="7">
-        <v>154884</v>
+        <v>157043</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3545,7 +3530,7 @@
         <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>157043</v>
+        <v>154884</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3580,34 +3565,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7">
+        <v>36179</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="7">
         <v>69</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>46705</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" s="7">
-        <v>51</v>
-      </c>
-      <c r="I16" s="7">
-        <v>36179</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -3616,13 +3601,13 @@
         <v>82883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3616,13 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>8761</v>
+        <v>9675</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>241</v>
@@ -3646,10 +3631,10 @@
         <v>242</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>9675</v>
+        <v>8761</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>243</v>
@@ -3673,7 +3658,7 @@
         <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,34 +3667,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>174</v>
+      </c>
+      <c r="D18" s="7">
+        <v>122725</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="7">
         <v>178</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>121120</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H18" s="7">
-        <v>174</v>
-      </c>
-      <c r="I18" s="7">
-        <v>122725</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M18" s="7">
         <v>352</v>
@@ -3718,10 +3703,10 @@
         <v>243845</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>256</v>
@@ -3733,25 +3718,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>239</v>
+      </c>
+      <c r="D19" s="7">
+        <v>168579</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>260</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>176586</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>239</v>
-      </c>
-      <c r="I19" s="7">
-        <v>168579</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3786,28 +3771,28 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>221</v>
+      </c>
+      <c r="D20" s="7">
+        <v>151808</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H20" s="7">
         <v>271</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>187178</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="H20" s="7">
-        <v>221</v>
-      </c>
-      <c r="I20" s="7">
-        <v>151808</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>260</v>
@@ -3837,28 +3822,28 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>84</v>
+      </c>
+      <c r="D21" s="7">
+        <v>57543</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H21" s="7">
         <v>86</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>60435</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="7">
-        <v>84</v>
-      </c>
-      <c r="I21" s="7">
-        <v>57543</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>267</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>268</v>
@@ -3888,10 +3873,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="D22" s="7">
-        <v>494160</v>
+        <v>498026</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>273</v>
@@ -3903,10 +3888,10 @@
         <v>275</v>
       </c>
       <c r="H22" s="7">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="I22" s="7">
-        <v>498026</v>
+        <v>494160</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>276</v>
@@ -3939,25 +3924,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1019</v>
+      </c>
+      <c r="D23" s="7">
+        <v>707376</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1058</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>741772</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1019</v>
-      </c>
-      <c r="I23" s="7">
-        <v>707376</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3986,7 +3971,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4006,7 +3991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8782529F-4EDE-4486-AD96-B092B4E396C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C88A3CE-8E67-48D8-8332-C1FFCF998EEA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4124,34 +4109,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>17601</v>
+        <v>12908</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>283</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>12908</v>
+        <v>17601</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -4160,13 +4145,13 @@
         <v>30510</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,34 +4160,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10503</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H5" s="7">
         <v>19</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>14481</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H5" s="7">
-        <v>17</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10503</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>293</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -4211,13 +4196,13 @@
         <v>24984</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,34 +4211,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>170</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106981</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H6" s="7">
         <v>137</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>89257</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H6" s="7">
-        <v>170</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106981</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M6" s="7">
         <v>307</v>
@@ -4262,10 +4247,10 @@
         <v>196238</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>306</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>307</v>
@@ -4277,25 +4262,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>209</v>
+      </c>
+      <c r="D7" s="7">
+        <v>130392</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>183</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>121339</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>209</v>
-      </c>
-      <c r="I7" s="7">
-        <v>130392</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4330,10 +4315,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>30800</v>
+        <v>26399</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>308</v>
@@ -4342,19 +4327,19 @@
         <v>309</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="7">
+        <v>48</v>
+      </c>
+      <c r="I8" s="7">
+        <v>30800</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H8" s="7">
-        <v>41</v>
-      </c>
-      <c r="I8" s="7">
-        <v>26399</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>312</v>
@@ -4369,10 +4354,10 @@
         <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,34 +4366,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7">
+        <v>13879</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H9" s="7">
         <v>33</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>22042</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H9" s="7">
-        <v>23</v>
-      </c>
-      <c r="I9" s="7">
-        <v>13879</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M9" s="7">
         <v>56</v>
@@ -4417,13 +4402,13 @@
         <v>35920</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,10 +4417,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="D10" s="7">
-        <v>201920</v>
+        <v>166035</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>323</v>
@@ -4447,10 +4432,10 @@
         <v>325</v>
       </c>
       <c r="H10" s="7">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="I10" s="7">
-        <v>166035</v>
+        <v>201920</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>326</v>
@@ -4483,25 +4468,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>325</v>
+      </c>
+      <c r="D11" s="7">
+        <v>206312</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>375</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>254762</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>325</v>
-      </c>
-      <c r="I11" s="7">
-        <v>206312</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4536,10 +4521,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D12" s="7">
-        <v>23472</v>
+        <v>32811</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>332</v>
@@ -4551,10 +4536,10 @@
         <v>334</v>
       </c>
       <c r="H12" s="7">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>32811</v>
+        <v>23472</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>335</v>
@@ -4587,10 +4572,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>12869</v>
+        <v>22699</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>341</v>
@@ -4602,10 +4587,10 @@
         <v>343</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>22699</v>
+        <v>12869</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>344</v>
@@ -4638,10 +4623,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="D14" s="7">
-        <v>147582</v>
+        <v>130408</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>350</v>
@@ -4653,10 +4638,10 @@
         <v>352</v>
       </c>
       <c r="H14" s="7">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="I14" s="7">
-        <v>130408</v>
+        <v>147583</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>353</v>
@@ -4689,25 +4674,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>267</v>
+      </c>
+      <c r="D15" s="7">
+        <v>185919</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>256</v>
       </c>
-      <c r="D15" s="7">
-        <v>183924</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>267</v>
-      </c>
       <c r="I15" s="7">
-        <v>185919</v>
+        <v>183925</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4742,10 +4727,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7">
-        <v>24823</v>
+        <v>37863</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>359</v>
@@ -4757,19 +4742,19 @@
         <v>361</v>
       </c>
       <c r="H16" s="7">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>37863</v>
+        <v>24823</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -4778,13 +4763,13 @@
         <v>62686</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,34 +4778,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10803</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H17" s="7">
         <v>16</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>12297</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H17" s="7">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7">
-        <v>10803</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -4829,13 +4814,13 @@
         <v>23100</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,34 +4829,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>167</v>
+      </c>
+      <c r="D18" s="7">
+        <v>116838</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H18" s="7">
         <v>173</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>128423</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="H18" s="7">
-        <v>167</v>
-      </c>
-      <c r="I18" s="7">
-        <v>116838</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M18" s="7">
         <v>340</v>
@@ -4880,13 +4865,13 @@
         <v>245261</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,25 +4880,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>235</v>
+      </c>
+      <c r="D19" s="7">
+        <v>165504</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>223</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>165543</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>235</v>
-      </c>
-      <c r="I19" s="7">
-        <v>165504</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4948,34 +4933,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>164</v>
+      </c>
+      <c r="D20" s="7">
+        <v>109982</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H20" s="7">
         <v>142</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>96697</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H20" s="7">
-        <v>164</v>
-      </c>
-      <c r="I20" s="7">
-        <v>109982</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M20" s="7">
         <v>306</v>
@@ -4984,13 +4969,13 @@
         <v>206679</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,31 +4987,31 @@
         <v>86</v>
       </c>
       <c r="D21" s="7">
-        <v>61689</v>
+        <v>57883</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>392</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
       </c>
       <c r="I21" s="7">
-        <v>57883</v>
+        <v>61689</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>396</v>
+        <v>139</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>397</v>
+        <v>109</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M21" s="7">
         <v>172</v>
@@ -5035,13 +5020,13 @@
         <v>119572</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,34 +5035,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>786</v>
+      </c>
+      <c r="D22" s="7">
+        <v>520263</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H22" s="7">
         <v>809</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>567182</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H22" s="7">
-        <v>786</v>
-      </c>
-      <c r="I22" s="7">
-        <v>520263</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>1595</v>
@@ -5086,13 +5071,13 @@
         <v>1087445</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>330</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,25 +5086,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1036</v>
+      </c>
+      <c r="D23" s="7">
+        <v>688128</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1037</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>725568</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1036</v>
-      </c>
-      <c r="I23" s="7">
-        <v>688128</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5148,7 +5133,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
